--- a/dashboard_must_webiste/arquivos/anotacoes_extraidas/saida_anotacoes_CUST-2002-121-40_ Eletropaulo.xlsx
+++ b/dashboard_must_webiste/arquivos/anotacoes_extraidas/saida_anotacoes_CUST-2002-121-40_ Eletropaulo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="44">
   <si>
     <t>Num_Tabela</t>
   </si>
@@ -34,24 +34,6 @@
     <t>01</t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
     <t>SPANH -88--A ANHANGUERA - 88</t>
   </si>
   <si>
@@ -112,18 +94,6 @@
     <t>SPSUL -88    SUL - 88</t>
   </si>
   <si>
-    <t>SPICO2138 -A ICON CAJAMAR</t>
-  </si>
-  <si>
-    <t>SPREC8138 -A REC</t>
-  </si>
-  <si>
-    <t>SPSCDS88 --A</t>
-  </si>
-  <si>
-    <t>SPSMIG88 --A SAO</t>
-  </si>
-  <si>
     <t>kV (C)</t>
   </si>
   <si>
@@ -136,18 +106,6 @@
     <t>M. FORNASARO - 88 kV (A)</t>
   </si>
   <si>
-    <t>II138kVA</t>
-  </si>
-  <si>
-    <t>VIII138kVA</t>
-  </si>
-  <si>
-    <t>S.CAETANO SUL88kVA</t>
-  </si>
-  <si>
-    <t>MIGUEL88kVA</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -188,33 +146,6 @@
   </si>
   <si>
     <t>O atendimento aos valores de MUST solicitados neste ponto de conexão, no período de 2 025 a 2028, nos horários de ponta e fora de ponta, fica condicionado a um fator de potência mínimo de 0,98, desconsiderando a parcela de confiabilidade declarada pela ENEL SP nesse ponto de cont ratação e a não violação da capacidade de carregamento de long a duração da LT 440 kV Bom Jardim - Fernão Dias, na transformação 500/345 kV da SE Poços de Caldas e da LT 230 kV Taubaté - São José dos Campos. Os valores poderão ser atendidos sem ressalvas após a implantação das seguintes obras: a) substituição d e equip amentos terminais e troca da proteção de barras no pátio de 440 kV da SE Bom Jardim, autorizada à CTEEP pelo Despacho ANEEL nº 386/20 21, com prazo contratual para fevereiro de 2025 e; b) LT 230 kV Taubaté – São José dos Campos C2, obra autorizada à CTEEP p ela ReA ANEEL nº 14.861/2023, com prazo contratual para setembro de 2026 e; c) substituição do transformador 500/345 kV da SE Poços de Caldas, obra autorizada à ELETROBRAS pela  ReA ANEEL nº 10.505/2021, com prazo contratual para 08 de março de 2024 e previ sto atualmente pela Transmissora para 30 de abril de 2025 (SIGET/ANEEL).</t>
-  </si>
-  <si>
-    <t>O atendimento aos valores de MUST solicitados neste ponto de conexão, no período de 2025 a 2028, no horário fora de ponta, fica condicionado a um fator de potência mínimo de 0,95, desconsiderando a parcela de confiabilidade declarada pela ENEL SP nesse ponto de contratação e a nã o violação da capacidade de carregamento de longa duração da LT 440 kV Bom Jardim - Fernão D ias, na transformação 500/345 kV da SE Poços de Caldas e da LT 230 kV Taubaté - São José dos Campos. Os valores poderão ser atendidos sem ressalvas após a implantação das seguintes obras: a) substituição de equipamento s terminais e troca da proteção de barras no pátio de 440 kV da SE Bom Jardim, autorizada à CTEEP pelo Despacho ANEEL nº 386/2021, com prazo contratual para fevere iro de 2025 e; b) LT 230 kV Taubaté – São José dos Campos C2, obra autorizada à CTEEP pela ReA ANEEL nº 14.861/2023, com prazo cont ratual para setembro de 2026 e; c) substituição do transformador 500/345 kV da SE Poços de Caldas, obra autorizada à ELETROBRAS pela ReA ANEEL nº 10.505/2021, com prazo contrat ual para 08 de março de 2024 e previsto atualmente pela Transmissora para 30 de abril de 2025 (SIGET/ANEEL).</t>
-  </si>
-  <si>
-    <t>O atendimento ao valor de MUST solicitado neste ponto de conexão, no ano de 2025, no horário fora de ponta, fica condicionado  a um fator de potência mínimo de 0,95, desconsiderando a parcela de confiabilidade declarada pela ENEL SP nesse ponto de con tratação e a não violação da capacidade de carregamento de longa duração da LT 440 kV Bom Jardim - Fernão Dias, na transformação 500/345 kV da SE Poços de Caldas e da LT 230 kV Taubaté - São José dos Campos. Os valores poderão ser atendidos sem ressalvas a pós a implantação das seguintes obras: a) substituição de equipamentos terminais e troca da proteção de barras no pátio de 44 0 kV da SE Bom Jardim, autorizada à CTEEP pelo Despacho ANEEL nº 386/2021, com prazo contratual para fevereiro de 2025 e; b) LT 230  kV Taubaté – São José dos Campos C2, obra</t>
-  </si>
-  <si>
-    <t>O atendimento aos valores de MUST solicitados neste ponto de conexão, no período de 2025 a 2028, no horário fora de ponta, fi ca condicionado a um fator de potência mínimo de 0,95, desconsiderando a parcela de confiabilidade declarada pela ENEL SP nes se ponto de contratação e a não violação da capacidade de carregamento de longa duração da LT 440 kV Bom Jardim - Fernão Dias, na transformação 500/345 kV da SE Poços de Caldas e da LT 230 kV Taubaté - São José dos Campos. Os valores poderão ser atendidos sem ressalvas após a implantação das seguintes obras: a) substituição de equipamentos terminais e troca da proteção de barras no pátio de 440 kV da SE Bom Jardim, autorizada à CTEEP pelo Despacho ANEEL nº 386/2021, com prazo contratual para fev ereiro de 20 25 e; b) LT 230 kV Taubaté – São José dos Campos C2, obra autorizada à CTEEP pela ReA ANEEL nº 14.861/2023, com prazo contratual para setembro de 2026 e; c) substituição do transformador 500/345 kV da SE Poços de Caldas, obra autorizada à ELETROBRAS pela R eA ANEEL nº 10.505/2021, com prazo contratual para 08 de março de 2024 e previsto atualmente pela Transmissora para 30 de abril de 2025 (SIGET/ANEEL).</t>
-  </si>
-  <si>
-    <t>O atendimento ao valor de MUST solicitado neste ponto de conexão, no ano de 2026, no horário fora de ponta, fica condicionado  a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração da LT 440 kV  Bom Jardim - Fernão Dias, na transformação 500/345 kV da SE Poços de Caldas e da LT 230 kV Taubaté - São José dos Campos. Os valores poderão ser atendidos sem ressalvas após a implantação das seguintes obras: a) substituição d e equipamentos terminais e tr oca da proteção de barras no pátio de 440 kV da SE Bom Jardim, autorizada à CTEEP pelo Despacho ANEEL nº 386/2021, com prazo contratual para fevereiro de 2025 e; b) LT 230 kV Taubaté – São José dos Campos C2, obra autorizada à CTEEP pela ReA ANEEL nº 14.86 1/2023, com prazo contratual para setembro de 2026 e; c) substituição do transformador 500/345 kV da SE Poços de Caldas, obra autorizada à ELETROBRAS pela  ReA ANEEL nº 10.505/2021, com prazo contratual para 08 de março de 2024 e previsto atualmente pela Tr ansmissora para 30 de abril de 2025 (SIGET/ANEEL).</t>
-  </si>
-  <si>
-    <t>O atendimento ao valor de MUST solicitado neste ponto de conexão, no ano de 2025, no horário fora de ponta, fica condicionado  a um fator de potência mínimo de</t>
-  </si>
-  <si>
-    <t>O atendimento aos valores de MUST solicitados neste ponto de conexão, no período de 2025 a 2028, no horário fora de ponta, fi ca condicionado a um fator de potência mínimo de 0,95, desconsideran do a parcela de confiabilidade declarada pela ENEL SP nesse ponto de contratação e a não violação da capacidade de carregamento de longa duração da LT 440 kV Bom Jardim - Fernão Dias, na transformação 500/345 kV da SE Poços de Caldas e da LT 230 kV Taubaté  - São José dos Campos. Os valores poderão ser atendidos sem ressalvas após a implantação das seguintes obras: a) substituição de equipamento s terminais e troca da proteção de barras no pátio de 440 kV da SE Bom Jardim, autorizada à CTEEP pelo Despacho ANE EL nº 386/2021, com prazo contratual para fevereiro de 2025 e; b) LT 230 kV Taubaté – São José dos Campos C2, obra autorizada à CTEEP pela ReA ANEEL nº 14.861/2023, com prazo contratual para setembro de 2026 e; c) substituição do transformador 500/345 kV d a SE Poços de Caldas, obra autorizada à ELETROBRAS pela ReA ANEEL nº 10.505/2021, com prazo contratual para 08 de março de 20 24 e previsto atualmente pela Transmissora para 30 de abril de 2025 (SIGET/ANEEL).</t>
-  </si>
-  <si>
-    <t>O atendimento ao valor de MUST solicitado  neste ponto de conexão, no ano de 2025, no horário fora de ponta, fica condicionado a um fator de potência mínimo de 0,95, desconsiderando a parcela de confiabilidade declarada pela ENEL SP nesse ponto de contratação e a não violação da capac idade de carr egamento de longa duração da LT 440 kV Bom Jardim - Fernão Dias, na transformação 500/345 kV da SE Poços de Caldas e da LT 230 kV Taubaté - São José dos Campos. Os valores poderão ser atendidos sem ressalvas após a implantação das seguintes obras: a) subst ituição de equipamentos terminais e troca da proteção de barras no pátio de 440 kV da SE Bom Jardim, autorizada à CTEEP pelo Despacho ANEEL nº 386/2021, com prazo contratual para fevereiro de 2025 e; b) LT 230 kV Tauba té – São José dos Campos C2, obra autorizada à CTEEP pela ReA ANEEL nº 14.861/2023, com prazo contratual para setembro de 2026 e; c) substituição do transformador 500/345 kV da SE Poços de Caldas, obra autorizada à ELETROBRAS pela ReA ANEEL nº 10.505/2021, com prazo contratual para 08 março de  2024 e previsto atualmente pela Transmissora para 30 de abril de 2025 (SIGET/ANEEL).</t>
-  </si>
-  <si>
-    <t>O atendimento aos valores de MUST solicitados neste ponto de conexão, no período de 2026 a 2028, no horário fora de ponta, fi ca condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração da LT 4 40 kV Bom Jardim - Fernão Dias, na transformação 500/345 kV da SE Poços de Caldas e da LT 230 kV Taubaté - São José dos Campos. Os valores poderão ser atendidos sem ressalvas após a implantação das seguintes obras: a) substituição de equipamentos terminais  e troca da proteção de barras no pátio de 440 kV da SE Bom Jardim, autorizada à CTEEP pelo Despacho ANEEL nº 386/2021, com prazo contratual para fevereiro de 2025 e; b) LT 230 kV Taubaté – São José dos Campos C2, obra autorizada à CTEEP pela ReA ANEEL nº 14.861/2023, com prazo contratual para setembro de 2026 e; c) substituição do transformador 500/345 kV da SE Poços de Caldas, obra autorizada à ELET ROBRAS pela ReA ANEEL nº</t>
-  </si>
-  <si>
-    <t>O atendimento aos valores de MUST solicitados neste ponto de conexão, no período de 2025 a 2028, nos horários de ponta e fora  de ponta, fica condicionado a um fator de potência mínimo de 0,98, desconsiderando a parcela de confiabilidade declarada pel a ENEL SP nesse ponto de contratação e a não violação da capacidade de carregamento de longa duração da LT 440 kV Bom Jardim - Fernão Dias, na transformação 500/345 kV da SE Poços de Caldas e da LT 230 kV Taubaté - São José dos Campos. Os valores poderão s er atendidos sem ressalvas após a implantação das seguintes obras: a) substituição de equipamentos terminais e troca da prote ção de barras no pátio de 440 kV da SE Bom Jardim, autorizada à CTEEP pelo Despacho ANEEL nº 386/2021, com prazo contratual para fe vereiro de 2025 e; b) LT 230 kV Taubaté – São José dos Campos C2, obra autorizada à CTEEP pela ReA ANEEL nº 14.861/2023, com prazo contratual para setembro de 2026 e; c) substituição do</t>
   </si>
 </sst>
 </file>
@@ -572,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,16 +531,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,16 +548,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,16 +565,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,16 +582,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,16 +599,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,16 +616,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,16 +633,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,16 +650,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,16 +667,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,16 +684,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,16 +701,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,16 +718,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -804,16 +735,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -821,16 +752,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -838,16 +769,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -855,16 +786,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -872,16 +803,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -889,16 +820,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -906,16 +837,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -923,16 +854,16 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -940,16 +871,16 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -957,16 +888,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -974,16 +905,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -991,16 +922,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1008,16 +939,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1025,16 +956,16 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1042,16 +973,16 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1059,16 +990,16 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1076,16 +1007,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1093,16 +1024,16 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1110,16 +1041,16 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1127,16 +1058,16 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1144,16 +1075,16 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1161,16 +1092,16 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1178,16 +1109,16 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1195,16 +1126,16 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1212,424 +1143,16 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" t="s">
-        <v>47</v>
-      </c>
-      <c r="E60" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" t="s">
-        <v>39</v>
-      </c>
-      <c r="D62" t="s">
-        <v>47</v>
-      </c>
-      <c r="E62" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
